--- a/doc/app/pg0137/pg0137_db_insert_単体テスト仕様書.xlsx
+++ b/doc/app/pg0137/pg0137_db_insert_単体テスト仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13380" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>単体テスト仕様書</t>
   </si>
@@ -154,8 +154,8 @@
   <si>
     <t>1,m_master_cardに1件追加されていること
 2,idが9であること
-3,midが5029769354380360であること
-4,add_midは'2038270024106900であること
+3,midが7269928561756231であること
+4,add_midは'2038270024106905であること
 5,confirm_midはnullであること
 6,confirm_authが0であること
 77,deleteflgが0であること</t>
@@ -230,6 +230,9 @@
     <t>DB登録</t>
   </si>
   <si>
+    <t>2038270024106905</t>
+  </si>
+  <si>
     <t>m_master_card</t>
   </si>
   <si>
@@ -251,22 +254,25 @@
     <t>delete_flg</t>
   </si>
   <si>
-    <t>8640899906563100</t>
+    <t>8640899906563105</t>
   </si>
   <si>
-    <t>522871045567072</t>
+    <t>0522871045567072</t>
   </si>
   <si>
-    <t>361536805164383</t>
+    <t>0361536805164383</t>
   </si>
   <si>
-    <t>1889364835489360</t>
+    <t>1889364835489365</t>
   </si>
   <si>
-    <t>2233997016630940</t>
+    <t>2233997016630948</t>
   </si>
   <si>
     <t>5029769354380360</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -296,6 +302,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -303,7 +362,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,23 +407,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,94 +439,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -454,49 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,13 +478,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,19 +538,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,13 +568,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,55 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +669,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -680,9 +710,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,52 +758,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,136 +783,136 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1277,8 +1283,8 @@
   <sheetPr/>
   <dimension ref="A2:DP46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="CA17" sqref="CA17:CS17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16:BB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -2727,7 +2733,9 @@
       <c r="BX17" s="7"/>
       <c r="BY17" s="7"/>
       <c r="BZ17" s="7"/>
-      <c r="CA17" s="7"/>
+      <c r="CA17" s="13">
+        <v>45517</v>
+      </c>
       <c r="CB17" s="7"/>
       <c r="CC17" s="7"/>
       <c r="CD17" s="7"/>
@@ -2852,7 +2860,9 @@
       <c r="BX18" s="7"/>
       <c r="BY18" s="7"/>
       <c r="BZ18" s="7"/>
-      <c r="CA18" s="7"/>
+      <c r="CA18" s="13">
+        <v>45517</v>
+      </c>
       <c r="CB18" s="7"/>
       <c r="CC18" s="7"/>
       <c r="CD18" s="7"/>
@@ -6203,8 +6213,8 @@
   <sheetPr/>
   <dimension ref="B2:CG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13:AY13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15:AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.625" defaultRowHeight="13.5"/>
@@ -7399,7 +7409,7 @@
       <c r="AG15" s="7"/>
       <c r="AH15" s="7"/>
       <c r="AI15" s="14" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7"/>
@@ -9102,10 +9112,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -9120,27 +9130,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9148,13 +9158,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -9168,13 +9178,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -9188,13 +9198,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -9208,13 +9218,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
@@ -9228,13 +9238,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -9248,13 +9258,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -9271,10 +9281,10 @@
         <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -9288,12 +9298,14 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E11" s="3">
         <v>0</v>
       </c>
@@ -9309,14 +9321,6 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
